--- a/Testing/LSTM_LTC_result.xlsx
+++ b/Testing/LSTM_LTC_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7024824178380331</v>
+        <v>0.8053825539634792</v>
       </c>
       <c r="F1" t="n">
-        <v>0.4996880724757587</v>
+        <v>0.6099851154451383</v>
       </c>
       <c r="G1" t="n">
-        <v>0.838748231443835</v>
+        <v>1.040958978365047</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6671911324121621</v>
+        <v>0.8591856367116681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4578668353312521</v>
+        <v>0.6628585822723563</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7582898585303243</v>
+        <v>1.128573773922885</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7111154453228203</v>
+        <v>0.7851112553723242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5157898802010625</v>
+        <v>0.5865605483921263</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8686668530634317</v>
+        <v>0.9845651104156101</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6438079705965021</v>
+        <v>0.7011461783263191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4473348495673942</v>
+        <v>0.5131729317076114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7519421269176276</v>
+        <v>0.8709163371672358</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6128656217091811</v>
+        <v>0.6249311665471707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4114410529672587</v>
+        <v>0.4272219809537628</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6905655583191797</v>
+        <v>0.7142047589714932</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6541371815309682</v>
+        <v>0.6756628501580962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4690366061720902</v>
+        <v>0.4943538607712222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8003684893436167</v>
+        <v>0.8515939717431537</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5980311971931939</v>
+        <v>0.6177260651763893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3953997011798488</v>
+        <v>0.416048929568231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.661309486619724</v>
+        <v>0.6933097177704658</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5830343562631993</v>
+        <v>0.5846437505644038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.379901228759062</v>
+        <v>0.3820878142143528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6394318892491364</v>
+        <v>0.6428556579319512</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6245649436738001</v>
+        <v>0.5827693752643581</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4299622073654477</v>
+        <v>0.3837079683672173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7215437152300949</v>
+        <v>0.6482647566284434</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>0.855274522833532</v>
+        <v>0.9471582164306035</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6459841753311959</v>
+        <v>0.7119918153080842</v>
       </c>
       <c r="G10" t="n">
-        <v>1.099798144072956</v>
+        <v>1.185635799413918</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9632048546359079</v>
+        <v>0.9469520838584156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7538589749295025</v>
+        <v>0.7220926808636239</v>
       </c>
       <c r="G11" t="n">
-        <v>1.293530720966922</v>
+        <v>1.211768833566247</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7694277021979301</v>
+        <v>0.8123978979460702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5591648104884781</v>
+        <v>0.5852769902887576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9327078576436488</v>
+        <v>0.9589973987332303</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7601482982512341</v>
+        <v>0.8024396850352886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5617523599674098</v>
+        <v>0.589802272147476</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9454880524261607</v>
+        <v>0.9761150320513871</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7564781214116756</v>
+        <v>0.8509838632319624</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5448520857254889</v>
+        <v>0.6213995073074133</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8970879562179546</v>
+        <v>1.01266070198053</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8440090693495704</v>
+        <v>0.8109329891723276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.63906516300315</v>
+        <v>0.5932400845004312</v>
       </c>
       <c r="G15" t="n">
-        <v>1.070320773619371</v>
+        <v>0.9749508405470789</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8439705584332946</v>
+        <v>0.8198385642268173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6634502908228457</v>
+        <v>0.6333830183331869</v>
       </c>
       <c r="G16" t="n">
-        <v>1.164418247752359</v>
+        <v>1.087647320101598</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>0.70613838607132</v>
+        <v>0.7234223666452535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5199087531449805</v>
+        <v>0.5324035292382903</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8801288249365857</v>
+        <v>0.8945515186902074</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6960498731248392</v>
+        <v>0.6780575561861395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5108891665763738</v>
+        <v>0.4945588489189652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8660727882767443</v>
+        <v>0.8412047160707724</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>4.087289285952892</v>
+        <v>3.177101264076848</v>
       </c>
       <c r="F19" t="n">
-        <v>3.965871791169005</v>
+        <v>3.061568467470246</v>
       </c>
       <c r="G19" t="n">
-        <v>6.968228612706215</v>
+        <v>5.375540348468691</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>5.305614463719456</v>
+        <v>0.9952835124906726</v>
       </c>
       <c r="F20" t="n">
-        <v>5.211790908769508</v>
+        <v>0.7376077121420986</v>
       </c>
       <c r="G20" t="n">
-        <v>9.100787255342897</v>
+        <v>1.186166399918893</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7622859616685271</v>
+        <v>0.9423409694762102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5245603235484775</v>
+        <v>0.6903621892108517</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8588111896866651</v>
+        <v>1.110190743843041</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>4.680054122998628</v>
+        <v>3.255698679724688</v>
       </c>
       <c r="F22" t="n">
-        <v>4.572906241410523</v>
+        <v>3.135671921622459</v>
       </c>
       <c r="G22" t="n">
-        <v>8.019202067996185</v>
+        <v>5.523587838212656</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>0.723248488312036</v>
+        <v>0.8294991268853523</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5021209890931759</v>
+        <v>0.601739947842367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8194677957505905</v>
+        <v>0.9701919444002191</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7156945891948032</v>
+        <v>0.8252025334909258</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4943314270840365</v>
+        <v>0.5947499244646182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8078023123676223</v>
+        <v>0.956863083170424</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49497652065658</v>
+        <v>2.636460842891363</v>
       </c>
       <c r="F25" t="n">
-        <v>2.424141570429296</v>
+        <v>2.527245547963832</v>
       </c>
       <c r="G25" t="n">
-        <v>4.205674276724893</v>
+        <v>4.448996992788148</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>2.545616285022138</v>
+        <v>0.7405326955429583</v>
       </c>
       <c r="F26" t="n">
-        <v>2.474409106075937</v>
+        <v>0.5377779271142208</v>
       </c>
       <c r="G26" t="n">
-        <v>4.301508768423469</v>
+        <v>0.8771113265649666</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6541848146464226</v>
+        <v>0.7400694494555961</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4594335122232128</v>
+        <v>0.53357232514303</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7763978423560141</v>
+        <v>0.8685272176849171</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/LSTM_LTC_result.xlsx
+++ b/Testing/LSTM_LTC_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C1" t="n">
         <v>25</v>
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8053825539634792</v>
+        <v>2.28857266533017</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6099851154451383</v>
+        <v>2.060700089142837</v>
       </c>
       <c r="G1" t="n">
-        <v>1.040958978365047</v>
+        <v>3.719200450213773</v>
       </c>
     </row>
     <row r="2">
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>25</v>
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8591856367116681</v>
+        <v>0.7022373771465334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6628585822723563</v>
+        <v>0.5275753043413614</v>
       </c>
       <c r="G2" t="n">
-        <v>1.128573773922885</v>
+        <v>0.909091145119252</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7851112553723242</v>
+        <v>2.512660075673723</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5865605483921263</v>
+        <v>2.268804719097067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9845651104156101</v>
+        <v>4.096600471134123</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7011461783263191</v>
+        <v>0.7793709984258018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5131729317076114</v>
+        <v>0.6080133938616138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8709163371672358</v>
+        <v>1.074721218799223</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6249311665471707</v>
+        <v>1.657340279501569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4272219809537628</v>
+        <v>1.491105543935278</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142047589714932</v>
+        <v>2.669348522047872</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>50</v>
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6756628501580962</v>
+        <v>1.529713666195247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4943538607712222</v>
+        <v>1.364029849779996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8515939717431537</v>
+        <v>2.444679185113684</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6177260651763893</v>
+        <v>1.104580612187744</v>
       </c>
       <c r="F7" t="n">
-        <v>0.416048929568231</v>
+        <v>0.9010222039596532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6933097177704658</v>
+        <v>1.63211188996626</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5846437505644038</v>
+        <v>1.675551580078038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3820878142143528</v>
+        <v>1.484096247948379</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6428556579319512</v>
+        <v>2.675413094457661</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5827693752643581</v>
+        <v>0.6594285874029607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3837079683672173</v>
+        <v>0.4833278089709303</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6482647566284434</v>
+        <v>0.8420274888076735</v>
       </c>
     </row>
     <row r="10">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>25</v>
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9471582164306035</v>
+        <v>0.8053825539634792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7119918153080842</v>
+        <v>0.6099851154451383</v>
       </c>
       <c r="G10" t="n">
-        <v>1.185635799413918</v>
+        <v>1.040958978365047</v>
       </c>
     </row>
     <row r="11">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9469520838584156</v>
+        <v>0.8591856367116681</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7220926808636239</v>
+        <v>0.6628585822723563</v>
       </c>
       <c r="G11" t="n">
-        <v>1.211768833566247</v>
+        <v>1.128573773922885</v>
       </c>
     </row>
     <row r="12">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8123978979460702</v>
+        <v>0.7851112553723242</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5852769902887576</v>
+        <v>0.5865605483921263</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9589973987332303</v>
+        <v>0.9845651104156101</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>50</v>
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8024396850352886</v>
+        <v>0.7011461783263191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.589802272147476</v>
+        <v>0.5131729317076114</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9761150320513871</v>
+        <v>0.8709163371672358</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>50</v>
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8509838632319624</v>
+        <v>0.6249311665471707</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6213995073074133</v>
+        <v>0.4272219809537628</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01266070198053</v>
+        <v>0.7142047589714932</v>
       </c>
     </row>
     <row r="15">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>50</v>
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8109329891723276</v>
+        <v>0.6756628501580962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5932400845004312</v>
+        <v>0.4943538607712222</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9749508405470789</v>
+        <v>0.8515939717431537</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8198385642268173</v>
+        <v>0.6177260651763893</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6333830183331869</v>
+        <v>0.416048929568231</v>
       </c>
       <c r="G16" t="n">
-        <v>1.087647320101598</v>
+        <v>0.6933097177704658</v>
       </c>
     </row>
     <row r="17">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7234223666452535</v>
+        <v>0.5846437505644038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5324035292382903</v>
+        <v>0.3820878142143528</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8945515186902074</v>
+        <v>0.6428556579319512</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6780575561861395</v>
+        <v>0.5827693752643581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4945588489189652</v>
+        <v>0.3837079683672173</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8412047160707724</v>
+        <v>0.6482647566284434</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
         <v>25</v>
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>3.177101264076848</v>
+        <v>0.9471582164306035</v>
       </c>
       <c r="F19" t="n">
-        <v>3.061568467470246</v>
+        <v>0.7119918153080842</v>
       </c>
       <c r="G19" t="n">
-        <v>5.375540348468691</v>
+        <v>1.185635799413918</v>
       </c>
     </row>
     <row r="20">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C20" t="n">
         <v>25</v>
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9952835124906726</v>
+        <v>0.9469520838584156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7376077121420986</v>
+        <v>0.7220926808636239</v>
       </c>
       <c r="G20" t="n">
-        <v>1.186166399918893</v>
+        <v>1.211768833566247</v>
       </c>
     </row>
     <row r="21">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
         <v>25</v>
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9423409694762102</v>
+        <v>0.8123978979460702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6903621892108517</v>
+        <v>0.5852769902887576</v>
       </c>
       <c r="G21" t="n">
-        <v>1.110190743843041</v>
+        <v>0.9589973987332303</v>
       </c>
     </row>
     <row r="22">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>50</v>
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>3.255698679724688</v>
+        <v>0.8024396850352886</v>
       </c>
       <c r="F22" t="n">
-        <v>3.135671921622459</v>
+        <v>0.589802272147476</v>
       </c>
       <c r="G22" t="n">
-        <v>5.523587838212656</v>
+        <v>0.9761150320513871</v>
       </c>
     </row>
     <row r="23">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
         <v>50</v>
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8294991268853523</v>
+        <v>0.8509838632319624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.601739947842367</v>
+        <v>0.6213995073074133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9701919444002191</v>
+        <v>1.01266070198053</v>
       </c>
     </row>
     <row r="24">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>50</v>
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8252025334909258</v>
+        <v>0.8109329891723276</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5947499244646182</v>
+        <v>0.5932400845004312</v>
       </c>
       <c r="G24" t="n">
-        <v>0.956863083170424</v>
+        <v>0.9749508405470789</v>
       </c>
     </row>
     <row r="25">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>2.636460842891363</v>
+        <v>0.8198385642268173</v>
       </c>
       <c r="F25" t="n">
-        <v>2.527245547963832</v>
+        <v>0.6333830183331869</v>
       </c>
       <c r="G25" t="n">
-        <v>4.448996992788148</v>
+        <v>1.087647320101598</v>
       </c>
     </row>
     <row r="26">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7405326955429583</v>
+        <v>0.7234223666452535</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5377779271142208</v>
+        <v>0.5324035292382903</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8771113265649666</v>
+        <v>0.8945515186902074</v>
       </c>
     </row>
     <row r="27">
@@ -1078,21 +1078,246 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6780575561861395</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4945588489189652</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8412047160707724</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>128</v>
       </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.177101264076848</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.061568467470246</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.375540348468691</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9952835124906726</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7376077121420986</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.186166399918893</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>128</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9423409694762102</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6903621892108517</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.110190743843041</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>128</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.255698679724688</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.135671921622459</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.523587838212656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>128</v>
+      </c>
+      <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8294991268853523</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.601739947842367</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9701919444002191</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>128</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8252025334909258</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5947499244646182</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.956863083170424</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.636460842891363</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.527245547963832</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.448996992788148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>128</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7405326955429583</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5377779271142208</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8771113265649666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>128</v>
+      </c>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.7400694494555961</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F36" t="n">
         <v>0.53357232514303</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G36" t="n">
         <v>0.8685272176849171</v>
       </c>
     </row>
